--- a/forwarder_expectation.xlsx
+++ b/forwarder_expectation.xlsx
@@ -561,13 +561,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.831055555555556</v>
+        <v>1.74795</v>
       </c>
       <c r="C2" t="n">
         <v>1.85811</v>
@@ -640,13 +638,11 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.788</v>
+        <v>0.9092</v>
       </c>
       <c r="C3" t="n">
         <v>0.8687699999999999</v>
@@ -719,13 +715,11 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.04316666666666667</v>
+        <v>0.33885</v>
       </c>
       <c r="C4" t="n">
         <v>0.07121999999999999</v>
@@ -798,13 +792,11 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>T4</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8106222222222222</v>
+        <v>1.12956</v>
       </c>
       <c r="C5" t="n">
         <v>0.36474</v>
@@ -877,13 +869,11 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>T5</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5153</v>
+        <v>0.9637699999999999</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -956,13 +946,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>T6</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0009333333333333333</v>
+        <v>0.60084</v>
       </c>
       <c r="C7" t="n">
         <v>0.00138</v>
@@ -1035,13 +1023,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>T7</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1.828944444444444</v>
+        <v>2.34605</v>
       </c>
       <c r="C8" t="n">
         <v>1.13207</v>
@@ -1114,13 +1100,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>T8</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.753311111111111</v>
+        <v>1.47798</v>
       </c>
       <c r="C9" t="n">
         <v>0.64408</v>
